--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H2">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>350.9431328625415</v>
+        <v>541.9088899597809</v>
       </c>
       <c r="R2">
-        <v>3158.488195762873</v>
+        <v>4877.180009638028</v>
       </c>
       <c r="S2">
-        <v>0.0671728023823478</v>
+        <v>0.09556109689248675</v>
       </c>
       <c r="T2">
-        <v>0.0671728023823478</v>
+        <v>0.09556109689248674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H3">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>52.30880937569244</v>
+        <v>76.65648399601599</v>
       </c>
       <c r="R3">
-        <v>470.7792843812319</v>
+        <v>689.908355964144</v>
       </c>
       <c r="S3">
-        <v>0.01001224695975333</v>
+        <v>0.01351772932738622</v>
       </c>
       <c r="T3">
-        <v>0.01001224695975333</v>
+        <v>0.01351772932738622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H4">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>163.7741107586247</v>
+        <v>240.0044590990859</v>
       </c>
       <c r="R4">
-        <v>1473.966996827622</v>
+        <v>2160.040131891774</v>
       </c>
       <c r="S4">
-        <v>0.03134743195457484</v>
+        <v>0.04232277749180089</v>
       </c>
       <c r="T4">
-        <v>0.03134743195457484</v>
+        <v>0.04232277749180089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>694.0989191654282</v>
+        <v>731.3694819163882</v>
       </c>
       <c r="R5">
-        <v>6246.890272488854</v>
+        <v>6582.325337247494</v>
       </c>
       <c r="S5">
-        <v>0.1328550558906721</v>
+        <v>0.1289708864728292</v>
       </c>
       <c r="T5">
-        <v>0.1328550558906721</v>
+        <v>0.1289708864728292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
         <v>103.4568984278133</v>
       </c>
       <c r="R6">
-        <v>931.1120858503198</v>
+        <v>931.1120858503199</v>
       </c>
       <c r="S6">
-        <v>0.01980232448629827</v>
+        <v>0.01824375808927987</v>
       </c>
       <c r="T6">
-        <v>0.01980232448629827</v>
+        <v>0.01824375808927987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>323.91411206033</v>
+        <v>323.9141120603299</v>
       </c>
       <c r="R7">
-        <v>2915.22700854297</v>
+        <v>2915.227008542969</v>
       </c>
       <c r="S7">
-        <v>0.06199927167916557</v>
+        <v>0.05711954245618352</v>
       </c>
       <c r="T7">
-        <v>0.06199927167916558</v>
+        <v>0.05711954245618352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H8">
         <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>2188.488856596799</v>
+        <v>2306.002670561012</v>
       </c>
       <c r="R8">
-        <v>19696.39970937119</v>
+        <v>20754.02403504911</v>
       </c>
       <c r="S8">
-        <v>0.4188910273896918</v>
+        <v>0.4066442693940099</v>
       </c>
       <c r="T8">
-        <v>0.4188910273896918</v>
+        <v>0.4066442693940099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H9">
         <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
         <v>326.1988501863289</v>
@@ -1004,10 +1004,10 @@
         <v>2935.78965167696</v>
       </c>
       <c r="S9">
-        <v>0.062436585443881</v>
+        <v>0.05752243690113119</v>
       </c>
       <c r="T9">
-        <v>0.06243658544388098</v>
+        <v>0.05752243690113117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H10">
         <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
-        <v>1021.298845402074</v>
+        <v>1021.298845402073</v>
       </c>
       <c r="R10">
-        <v>9191.689608618663</v>
+        <v>9191.689608618657</v>
       </c>
       <c r="S10">
-        <v>0.1954832538136152</v>
+        <v>0.1800975029748925</v>
       </c>
       <c r="T10">
-        <v>0.1954832538136152</v>
+        <v>0.1800975029748925</v>
       </c>
     </row>
   </sheetData>
